--- a/obd_codes_mapped.xlsx
+++ b/obd_codes_mapped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mode01" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Mode04" sheetId="4" r:id="rId3"/>
     <sheet name="Mode07" sheetId="5" r:id="rId4"/>
     <sheet name="Mode09" sheetId="6" r:id="rId5"/>
+    <sheet name="References" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
   <si>
     <t>PIDs supported [01 - 20]</t>
   </si>
@@ -392,6 +393,12 @@
   </si>
   <si>
     <t>Pulled on Android?</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t>http://www.outilsobdfacile.com/obd-mode-pid.php</t>
   </si>
 </sst>
 </file>
@@ -479,23 +486,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -506,6 +498,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -823,2138 +832,2138 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="3" t="str">
         <f>DEC2HEX(B5,2)</f>
         <v>00</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <f>B5+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C69" si="0">DEC2HEX(B6,2)</f>
         <v>01</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="4" t="str">
         <f t="shared" ref="E6:E69" si="1">(IF(F6="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:B62" si="2">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0B</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0C</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0F</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="B22" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="B24" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="B26" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="B30" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+      <c r="B32" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="B33" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B34" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="C34" s="8" t="str">
+      <c r="C34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C35" s="8" t="str">
+      <c r="C35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="B36" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="C36" s="8" t="str">
+      <c r="C36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="9" t="str">
+      <c r="E36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="str">
+      <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="B38" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="C38" s="8" t="str">
+      <c r="C38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C39" s="8" t="str">
+      <c r="C39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="B40" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C40" s="8" t="str">
+      <c r="C40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="9" t="str">
+      <c r="E40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="C42" s="8" t="str">
+      <c r="C42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="B43" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C43" s="8" t="str">
+      <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+      <c r="B44" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C44" s="8" t="str">
+      <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+      <c r="B45" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="C45" s="8" t="str">
+      <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+      <c r="B46" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+      <c r="B47" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+      <c r="B48" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="B49" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C49" s="8" t="str">
+      <c r="C49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="B50" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C50" s="8" t="str">
+      <c r="C50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+      <c r="B51" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C51" s="8" t="str">
+      <c r="C51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="B52" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C52" s="8" t="str">
+      <c r="C52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="9" t="str">
+      <c r="E52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+      <c r="B53" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+      <c r="B54" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C54" s="8" t="str">
+      <c r="C54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="9" t="str">
+      <c r="E54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="B55" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C55" s="8" t="str">
+      <c r="C55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+      <c r="B56" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="C56" s="8" t="str">
+      <c r="C56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="9" t="str">
+      <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+      <c r="B57" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C57" s="8" t="str">
+      <c r="C57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="9" t="str">
+      <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+      <c r="B58" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+      <c r="B59" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="C59" s="8" t="str">
+      <c r="C59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+      <c r="B60" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C60" s="8" t="str">
+      <c r="C60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+      <c r="B61" s="3">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="C61" s="8" t="str">
+      <c r="C61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+      <c r="B62" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="C62" s="8" t="str">
+      <c r="C62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
-        <f t="shared" ref="B63:B101" si="3">B62+1</f>
+      <c r="B63" s="3">
+        <f t="shared" ref="B63:B73" si="3">B62+1</f>
         <v>58</v>
       </c>
-      <c r="C63" s="8" t="str">
+      <c r="C63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+      <c r="B64" s="3">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="C64" s="8" t="str">
+      <c r="C64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+      <c r="B65" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+      <c r="B66" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="C66" s="8" t="str">
+      <c r="C66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+      <c r="B67" s="3">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+      <c r="B68" s="3">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3F</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+      <c r="B69" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="3" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E69" s="9" t="str">
+      <c r="E69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+      <c r="B70" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="C70" s="8" t="str">
-        <f t="shared" ref="C70:C105" si="4">DEC2HEX(B70,2)</f>
+      <c r="C70" s="3" t="str">
+        <f t="shared" ref="C70:C73" si="4">DEC2HEX(B70,2)</f>
         <v>41</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="str">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="str">
         <f t="shared" ref="E70:E106" si="5">(IF(F70="","No", "Yes"))</f>
         <v>No</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+      <c r="B71" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="3" t="str">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="9" t="str">
+      <c r="E71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+      <c r="B72" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="3" t="str">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="9" t="str">
+      <c r="E72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
+      <c r="B73" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="3" t="str">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="9" t="str">
+      <c r="E73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="str">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
+      <c r="B75" s="3">
         <f>B73+1</f>
         <v>69</v>
       </c>
-      <c r="C75" s="8" t="str">
-        <f>DEC2HEX(B75,2)</f>
+      <c r="C75" s="3" t="str">
+        <f t="shared" ref="C75:C106" si="6">DEC2HEX(B75,2)</f>
         <v>45</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="9" t="str">
+      <c r="E75" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
-        <f>B75+1</f>
+      <c r="B76" s="3">
+        <f t="shared" ref="B76:B102" si="7">B75+1</f>
         <v>70</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f>DEC2HEX(B76,2)</f>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="9" t="str">
+      <c r="E76" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
-        <f>B76+1</f>
+      <c r="B77" s="3">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="C77" s="8" t="str">
-        <f>DEC2HEX(B77,2)</f>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="str">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
-        <f>B77+1</f>
+      <c r="B78" s="3">
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="C78" s="8" t="str">
-        <f>DEC2HEX(B78,2)</f>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="str">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
-        <f>B78+1</f>
+      <c r="B79" s="3">
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="C79" s="8" t="str">
-        <f>DEC2HEX(B79,2)</f>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="str">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
-        <f>B79+1</f>
+      <c r="B80" s="3">
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="C80" s="8" t="str">
-        <f>DEC2HEX(B80,2)</f>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4A</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="str">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
-        <f>B80+1</f>
+      <c r="B81" s="3">
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="C81" s="8" t="str">
-        <f>DEC2HEX(B81,2)</f>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4B</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="str">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
-        <f>B81+1</f>
+      <c r="B82" s="3">
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="C82" s="8" t="str">
-        <f>DEC2HEX(B82,2)</f>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4C</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="str">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
-        <f>B82+1</f>
+      <c r="B83" s="3">
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="C83" s="8" t="str">
-        <f>DEC2HEX(B83,2)</f>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4D</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="str">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="8">
-        <f>B83+1</f>
+      <c r="B84" s="3">
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="C84" s="8" t="str">
-        <f>DEC2HEX(B84,2)</f>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4E</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="str">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
-        <f>B84+1</f>
+      <c r="B85" s="3">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f>DEC2HEX(B85,2)</f>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>4F</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="str">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
-        <f>B85+1</f>
+      <c r="B86" s="3">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="C86" s="8" t="str">
-        <f>DEC2HEX(B86,2)</f>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="str">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
-        <f>B86+1</f>
+      <c r="B87" s="3">
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="C87" s="8" t="str">
-        <f>DEC2HEX(B87,2)</f>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="9" t="str">
+      <c r="E87" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
-        <f>B87+1</f>
+      <c r="B88" s="3">
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="C88" s="8" t="str">
-        <f>DEC2HEX(B88,2)</f>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="str">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
-        <f>B88+1</f>
+      <c r="B89" s="3">
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="C89" s="8" t="str">
-        <f>DEC2HEX(B89,2)</f>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="str">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="8">
-        <f>B89+1</f>
+      <c r="B90" s="3">
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="C90" s="8" t="str">
-        <f>DEC2HEX(B90,2)</f>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9" t="str">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="8">
-        <f>B90+1</f>
+      <c r="B91" s="3">
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="C91" s="8" t="str">
-        <f>DEC2HEX(B91,2)</f>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="str">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="8">
-        <f>B91+1</f>
+      <c r="B92" s="3">
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="C92" s="8" t="str">
-        <f>DEC2HEX(B92,2)</f>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="str">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="8">
-        <f>B92+1</f>
+      <c r="B93" s="3">
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="C93" s="8" t="str">
-        <f>DEC2HEX(B93,2)</f>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="str">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
-        <f>B93+1</f>
+      <c r="B94" s="3">
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
-      <c r="C94" s="8" t="str">
-        <f>DEC2HEX(B94,2)</f>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="str">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
-        <f>B94+1</f>
+      <c r="B95" s="3">
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="C95" s="8" t="str">
-        <f>DEC2HEX(B95,2)</f>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="str">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="8">
-        <f>B95+1</f>
+      <c r="B96" s="3">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="C96" s="8" t="str">
-        <f>DEC2HEX(B96,2)</f>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5A</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="str">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
-        <f>B96+1</f>
+      <c r="B97" s="3">
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="C97" s="8" t="str">
-        <f>DEC2HEX(B97,2)</f>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5B</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="str">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="8">
-        <f>B97+1</f>
+      <c r="B98" s="3">
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="C98" s="8" t="str">
-        <f>DEC2HEX(B98,2)</f>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5C</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9" t="str">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="8">
-        <f>B98+1</f>
+      <c r="B99" s="3">
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="C99" s="8" t="str">
-        <f>DEC2HEX(B99,2)</f>
+      <c r="C99" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5D</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="str">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
-        <f>B99+1</f>
+      <c r="B100" s="3">
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="C100" s="8" t="str">
-        <f>DEC2HEX(B100,2)</f>
+      <c r="C100" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5E</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="str">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
-        <f>B100+1</f>
+      <c r="B101" s="3">
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="C101" s="8" t="str">
-        <f>DEC2HEX(B101,2)</f>
+      <c r="C101" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>5F</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="str">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
-        <f>B101+1</f>
+      <c r="B102" s="3">
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="C102" s="8" t="str">
-        <f>DEC2HEX(B102,2)</f>
+      <c r="C102" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9" t="str">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
-        <f t="shared" ref="B103:B106" si="6">B102+1</f>
+      <c r="B103" s="3">
+        <f t="shared" ref="B103:B106" si="8">B102+1</f>
         <v>97</v>
       </c>
-      <c r="C103" s="8" t="str">
-        <f>DEC2HEX(B103,2)</f>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="str">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
+      <c r="B104" s="3">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="C104" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="C104" s="8" t="str">
-        <f>DEC2HEX(B104,2)</f>
         <v>62</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="str">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="8">
+      <c r="B105" s="3">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="C105" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="C105" s="8" t="str">
-        <f>DEC2HEX(B105,2)</f>
         <v>63</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="str">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
+      <c r="B106" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="C106" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="C106" s="8" t="str">
-        <f>DEC2HEX(B106,2)</f>
         <v>64</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="str">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2989,101 +2998,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3108,89 +3117,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3225,84 +3234,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3337,346 +3346,346 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="3" t="str">
         <f>DEC2HEX(B5,2)</f>
         <v>00</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>No</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <f>B5+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C20" si="0">DEC2HEX(B6,2)</f>
         <v>01</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="str">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="str">
         <f t="shared" ref="E6:E20" si="1">(IF(F6="","No", "Yes"))</f>
         <v>No</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:B20" si="2">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>07</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0B</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0C</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0F</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3691,4 +3700,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/obd_codes_mapped.xlsx
+++ b/obd_codes_mapped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4680" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="255" windowWidth="14355" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Mode01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="220">
   <si>
     <t>PIDs supported [01 - 20]</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Fuel Tank Level Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Distance traveled since codes cleared</t>
   </si>
   <si>
     <t>Absolute Barometric Pressure</t>
@@ -399,13 +396,298 @@
   </si>
   <si>
     <t>http://www.outilsobdfacile.com/obd-mode-pid.php</t>
+  </si>
+  <si>
+    <t>WagonR Support</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 1 sensor 1</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 1 sensor 2</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 1 sensor 3</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 1 sensor 4</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 2 sensor 1</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 2 sensor 2</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 2 sensor 3</t>
+  </si>
+  <si>
+    <t>Oxygen sensor volts bank 2 sensor 4</t>
+  </si>
+  <si>
+    <t>OBD computer specification</t>
+  </si>
+  <si>
+    <t>O2 sensor positions bank/sensor</t>
+  </si>
+  <si>
+    <t>Auxiliary input status</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Swift Diesel</t>
+  </si>
+  <si>
+    <t>&lt;Model&gt;</t>
+  </si>
+  <si>
+    <t>ObdRawCommand</t>
+  </si>
+  <si>
+    <t>"01 03"</t>
+  </si>
+  <si>
+    <t>"01 13"</t>
+  </si>
+  <si>
+    <t>"01 14"</t>
+  </si>
+  <si>
+    <t>"01 1C"</t>
+  </si>
+  <si>
+    <t>Distance traveled since codes cleared</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 1, sensor 1 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 1, sensor 2 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 1, sensor 3 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 1, sensor 4 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 2, sensor 1 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 2, sensor 2 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 2, sensor 3 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>O2 sensor (extended range) bank 2, sensor 4 (lambda and volts)</t>
+  </si>
+  <si>
+    <t>EGR in %</t>
+  </si>
+  <si>
+    <t>EGR error in %</t>
+  </si>
+  <si>
+    <t>Evaporation purge in %</t>
+  </si>
+  <si>
+    <t>Number of warning(s) since faults (DTC) were cleared</t>
+  </si>
+  <si>
+    <t>Evaporation system vapour pressure in Pa</t>
+  </si>
+  <si>
+    <t>Catalyst temperature in Â°C bank 1, sensor 1</t>
+  </si>
+  <si>
+    <t>Catalyst temperature in Â°C bank 2, sensor 1</t>
+  </si>
+  <si>
+    <t>Catalyst temperature in Â°C bank 1, sensor 2</t>
+  </si>
+  <si>
+    <t>Monitor status this drive cycle</t>
+  </si>
+  <si>
+    <t>Absolute throttle position B in %</t>
+  </si>
+  <si>
+    <t>Absolute throttle position C in %</t>
+  </si>
+  <si>
+    <t>Accelerator pedal position D in %</t>
+  </si>
+  <si>
+    <t>Accelerator pedal position E in %</t>
+  </si>
+  <si>
+    <t>Accelerator pedal position F in %</t>
+  </si>
+  <si>
+    <t>Commanded throttle actuator in %</t>
+  </si>
+  <si>
+    <t>Engine run time since MIL on in min</t>
+  </si>
+  <si>
+    <t>Engine run time since faults cleared in min</t>
+  </si>
+  <si>
+    <t>Exteral test equipment no. 1 configuration information</t>
+  </si>
+  <si>
+    <t>Exteral test equipment no. 2 configuration information</t>
+  </si>
+  <si>
+    <t>Ethanol fuel %</t>
+  </si>
+  <si>
+    <t>Absolute evaporation system vapour pressure in kPa</t>
+  </si>
+  <si>
+    <t>Short-term O2 sensor trim bank 1 and 3</t>
+  </si>
+  <si>
+    <t>Long-term O2 sensor trim bank 1 and 3</t>
+  </si>
+  <si>
+    <t>Short-term O2 sensor trim bank 2 and 4</t>
+  </si>
+  <si>
+    <t>Long-term O2 sensor trim bank 2 and 4</t>
+  </si>
+  <si>
+    <t>Absolute fuel rail pressure in kPa</t>
+  </si>
+  <si>
+    <t>Relative accelerator pedal position in %</t>
+  </si>
+  <si>
+    <t>Battery unit remaining life (hybrid) in %</t>
+  </si>
+  <si>
+    <t>Engine oil temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Fuel injection timing in Â°</t>
+  </si>
+  <si>
+    <t>Fuel consumption in litre/hr</t>
+  </si>
+  <si>
+    <t>List of PIDs supported (range 97 to 128)</t>
+  </si>
+  <si>
+    <t>Driver demand: torque percentage (%)</t>
+  </si>
+  <si>
+    <t>Final engine torque percentage (%)</t>
+  </si>
+  <si>
+    <t>Engine torque reference in Nm</t>
+  </si>
+  <si>
+    <t>Engine torque data in %</t>
+  </si>
+  <si>
+    <t>Auxiliary inputs / outputs</t>
+  </si>
+  <si>
+    <t>Flowmeter sensor</t>
+  </si>
+  <si>
+    <t>Engine water temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Air temperature sensor in Â°C</t>
+  </si>
+  <si>
+    <t>Commanded EGR and EGR error</t>
+  </si>
+  <si>
+    <t>Commanded Diesel intake air flow control and relative intake air flow position</t>
+  </si>
+  <si>
+    <t>Recirculation gas temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Commanded throttle actuator control and relative throttle position</t>
+  </si>
+  <si>
+    <t>Fuel pressure control system</t>
+  </si>
+  <si>
+    <t>Injection pressure control system</t>
+  </si>
+  <si>
+    <t>Turbocharger compressor inlet pressure in kPa</t>
+  </si>
+  <si>
+    <t>Boost pressure control in kPa</t>
+  </si>
+  <si>
+    <t>Variable Geometry turbo (VGT) control</t>
+  </si>
+  <si>
+    <t>Wastegate control</t>
+  </si>
+  <si>
+    <t>Exhaust pressure in kPa</t>
+  </si>
+  <si>
+    <t>Turbocharger RPM</t>
+  </si>
+  <si>
+    <t>Turbocharger A temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Turbocharger B temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Charge air cooler temperature in Â°C</t>
+  </si>
+  <si>
+    <t>Exhaust Gas temperature (EGT) Bank 1</t>
+  </si>
+  <si>
+    <t>Exhaust Gas temperature (EGT) Bank 2</t>
+  </si>
+  <si>
+    <t>Diesel particulate filter (DPF) bank 1</t>
+  </si>
+  <si>
+    <t>Diesel particulate filter (DPF) bank 2</t>
+  </si>
+  <si>
+    <t>Diesel Particulate filter (DPF) temperature</t>
+  </si>
+  <si>
+    <t>NOx NTE control area status</t>
+  </si>
+  <si>
+    <t>PM NTE control area status</t>
+  </si>
+  <si>
+    <t>Engine run time</t>
+  </si>
+  <si>
+    <t>List of PIDs supported (range 129 to 160)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +699,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,10 +768,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -499,12 +790,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,7 +815,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H106"/>
+  <dimension ref="B2:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,55 +1130,83 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -897,9 +1227,17 @@
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f>B5+1</f>
         <v>1</v>
@@ -922,10 +1260,24 @@
         <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>IF(AND(K6="Yes",$H6&lt;&gt;"Yes"),"No","")</f>
+        <v/>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="4" t="str">
+        <f>IF(AND(M6="Yes",$H6&lt;&gt;"Yes"),"No","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f t="shared" ref="B7:B62" si="2">B6+1</f>
         <v>2</v>
@@ -944,8 +1296,22 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ref="L7:N70" si="3">IF(AND(K7="Yes",$H7&lt;&gt;"Yes"),"No","")</f>
+        <v/>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -959,13 +1325,33 @@
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Yes</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -988,10 +1374,24 @@
         <v>36</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1014,10 +1414,24 @@
         <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1027,101 +1441,157 @@
         <v>06</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>07</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="H12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>08</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>09</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1144,10 +1614,24 @@
         <v>38</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1170,10 +1654,24 @@
         <v>39</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1196,10 +1694,24 @@
         <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1222,10 +1734,24 @@
         <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1248,10 +1774,24 @@
         <v>42</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1274,10 +1814,24 @@
         <v>43</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1300,10 +1854,24 @@
         <v>44</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1326,10 +1894,24 @@
         <v>45</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1348,8 +1930,22 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1363,13 +1959,33 @@
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Yes</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1378,16 +1994,38 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Yes</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1396,7 +2034,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1404,8 +2044,22 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1414,7 +2068,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1422,8 +2078,22 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1432,7 +2102,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1440,8 +2112,22 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1450,7 +2136,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1458,8 +2146,22 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1468,7 +2170,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1476,8 +2180,22 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1486,7 +2204,9 @@
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1494,8 +2214,22 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1504,7 +2238,9 @@
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1512,8 +2248,22 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1522,16 +2272,38 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>Yes</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1540,7 +2312,9 @@
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1548,8 +2322,22 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1558,7 +2346,9 @@
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1566,8 +2356,22 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1590,10 +2394,24 @@
         <v>46</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -1615,9 +2433,25 @@
       <c r="G37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -1640,10 +2474,24 @@
         <v>48</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -1662,8 +2510,22 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -1686,10 +2548,24 @@
         <v>49</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1698,7 +2574,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1706,8 +2584,22 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -1716,7 +2608,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1724,8 +2618,22 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -1734,7 +2642,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1742,8 +2652,22 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -1752,7 +2676,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1760,8 +2686,22 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -1770,7 +2710,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="E45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1778,8 +2720,22 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -1788,7 +2744,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1796,8 +2754,22 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -1806,7 +2778,9 @@
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1814,8 +2788,22 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -1824,7 +2812,9 @@
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1832,8 +2822,22 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -1842,7 +2846,9 @@
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1850,8 +2856,22 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -1860,7 +2880,9 @@
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1868,8 +2890,22 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -1878,7 +2914,9 @@
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1886,8 +2924,22 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -1910,10 +2962,24 @@
         <v>50</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1922,7 +2988,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="E53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1930,8 +2998,22 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -1941,7 +3023,7 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1954,8 +3036,22 @@
         <v>51</v>
       </c>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -1964,7 +3060,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="E55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -1972,8 +3070,22 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -1983,7 +3095,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1996,10 +3108,24 @@
         <v>52</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2009,7 +3135,7 @@
         <v>34</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2022,10 +3148,24 @@
         <v>53</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2034,7 +3174,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2042,8 +3184,22 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2052,7 +3208,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2060,8 +3218,22 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2070,7 +3242,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2078,8 +3252,22 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -2088,7 +3276,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="E61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2096,8 +3286,22 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -2106,7 +3310,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="E62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2114,17 +3320,33 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
-        <f t="shared" ref="B63:B73" si="3">B62+1</f>
+        <f t="shared" ref="B63:B73" si="4">B62+1</f>
         <v>58</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3A</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2132,17 +3354,33 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3B</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2150,17 +3388,33 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2168,17 +3422,33 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3D</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="E66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2186,17 +3456,33 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3E</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2204,17 +3490,33 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3F</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
@@ -2222,10 +3524,24 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C69" s="3" t="str">
@@ -2233,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2245,40 +3561,72 @@
       <c r="G69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" ref="C70:C73" si="4">DEC2HEX(B70,2)</f>
+        <f t="shared" ref="C70:C73" si="5">DEC2HEX(B70,2)</f>
         <v>41</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" ref="E70:E106" si="5">(IF(F70="","No", "Yes"))</f>
+        <f t="shared" ref="E70:E106" si="6">(IF(F70="","No", "Yes"))</f>
         <v>No</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -2288,23 +3636,37 @@
         <v>55</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L71" s="4" t="str">
+        <f t="shared" ref="L71:N106" si="7">IF(AND(K71="Yes",$H71&lt;&gt;"Yes"),"No","")</f>
+        <v/>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2314,21 +3676,35 @@
         <v>56</v>
       </c>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L72" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -2338,15 +3714,29 @@
         <v>57</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2356,43 +3746,71 @@
         <v>57</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <f>B73+1</f>
         <v>69</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f t="shared" ref="C75:C106" si="6">DEC2HEX(B75,2)</f>
+        <f t="shared" ref="C75:C106" si="8">DEC2HEX(B75,2)</f>
         <v>45</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L75" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <f t="shared" ref="B76:B102" si="7">B75+1</f>
+        <f t="shared" ref="B76:B102" si="9">B75+1</f>
         <v>70</v>
       </c>
       <c r="C76" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="F76" s="4" t="s">
@@ -2402,203 +3820,377 @@
         <v>58</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L76" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="C77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L77" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="C78" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L78" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="C79" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L79" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="C80" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4A</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4A</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L80" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="C81" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4B</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4B</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L81" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="C82" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4C</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4C</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L82" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="C83" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4D</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4D</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L83" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="C84" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4E</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4E</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L84" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="C85" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>4F</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>4F</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L85" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="C86" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L86" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="C87" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="F87" s="4" t="s">
@@ -2608,201 +4200,377 @@
         <v>59</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L87" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="C88" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L88" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="C89" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L89" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="C90" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E90" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="C91" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L91" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="C92" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L92" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="C93" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L93" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="C94" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L94" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="C95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L95" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="C96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5A</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5A</v>
-      </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L96" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="C97" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5B</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5B</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L97" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="C98" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5C</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5C</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -2812,39 +4580,71 @@
         <v>60</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L98" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="C99" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5D</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5D</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L99" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="C100" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5E</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5E</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -2854,119 +4654,586 @@
         <v>61</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L100" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="C101" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>5F</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>5F</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L101" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="C102" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E102" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
-        <f t="shared" ref="B103:B106" si="8">B102+1</f>
+        <f t="shared" ref="B103:B134" si="10">B102+1</f>
         <v>97</v>
       </c>
       <c r="C103" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E103" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="C104" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C104" s="3" t="str">
+        <v>62</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="C105" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="C105" s="3" t="str">
+        <v>63</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E105" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="C106" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="C106" s="3" t="str">
+        <v>64</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f t="shared" ref="C107:C134" si="11">DEC2HEX(B107,2)</f>
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="C108" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="D108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="C110" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="D111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="C112" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6A</v>
+      </c>
+      <c r="D112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="C113" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6B</v>
+      </c>
+      <c r="D113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6C</v>
+      </c>
+      <c r="D114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="C115" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6D</v>
+      </c>
+      <c r="D115" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="C116" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6E</v>
+      </c>
+      <c r="D116" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="C117" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6F</v>
+      </c>
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="C118" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="D118" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="C119" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="D119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="C120" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="D120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="C121" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="C122" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="D122" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="C123" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="D123" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="C124" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="D124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <f t="shared" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="C125" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="D125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="C126" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="D126" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="C127" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="D127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="C128" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7A</v>
+      </c>
+      <c r="D128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+      <c r="C129" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7B</v>
+      </c>
+      <c r="D129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="C130" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7C</v>
+      </c>
+      <c r="D130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="C131" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7D</v>
+      </c>
+      <c r="D131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="C132" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7E</v>
+      </c>
+      <c r="D132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <f t="shared" si="10"/>
+        <v>127</v>
+      </c>
+      <c r="C133" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>7F</v>
+      </c>
+      <c r="D133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="C134" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="D134" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -2998,72 +5265,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
+      <c r="H3" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -3117,69 +5384,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
+      <c r="H3" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>(IF(F5="","No", "Yes"))</f>
         <v>Yes</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3234,64 +5501,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
+      <c r="H3" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3346,49 +5613,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
+      <c r="H3" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -3437,20 +5704,20 @@
         <v>02</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -3706,23 +5973,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>